--- a/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,45%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>72,82; 78,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>69,6; 75,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>79,14; 84,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>64,04; 72,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>77,07; 81,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>74,99; 79,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>85,62; 89,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>69,35; 74,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>76,07; 79,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>73,5; 77,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>83,61; 87,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>68,25; 72,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,56%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>65,36; 69,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>65,02; 69,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>81,53; 84,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>56,81; 65,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>66,41; 71,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>73,54; 77,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>84,25; 87,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>62,17; 66,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>66,67; 69,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,53; 72,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>83,26; 85,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>60,93; 65,35</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>64,62; 72,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>62,92; 72,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>72,66; 80,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>57,47; 65,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>60,0; 68,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>62,66; 72,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>71,92; 79,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,88; 61,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>63,69; 69,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>64,21; 70,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>73,73; 78,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>56,63; 62,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,05%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,69; 71,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>67,18; 70,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,57; 83,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>59,85; 65,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>70,83; 73,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>73,72; 76,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,53; 85,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,04; 66,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>70,27; 72,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>71,08; 73,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>82,36; 84,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>62,45; 65,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>70,45%</t>
+          <t>69,56%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,04; 72,03</t>
+          <t>62,88; 71,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,35; 74,39</t>
+          <t>68,54; 73,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>68,25; 72,54</t>
+          <t>67,24; 71,58</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>58,41%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,81; 65,43</t>
+          <t>36,45; 63,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,17; 66,77</t>
+          <t>53,75; 64,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>60,93; 65,35</t>
+          <t>47,98; 62,98</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>58,84%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,47; 65,67</t>
+          <t>56,45; 64,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 61,01</t>
+          <t>53,55; 60,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,63; 62,01</t>
+          <t>56,15; 61,7</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,76%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>60,52%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 65,35</t>
+          <t>44,05; 63,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,04; 66,23</t>
+          <t>58,23; 64,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,45; 65,46</t>
+          <t>53,25; 63,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,82; 78,34</t>
+          <t>73,15; 78,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,6; 75,69</t>
+          <t>69,74; 75,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,14; 84,7</t>
+          <t>79,11; 84,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,88; 71,21</t>
+          <t>63,1; 71,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,07; 81,49</t>
+          <t>76,85; 81,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,99; 79,74</t>
+          <t>75,18; 79,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,62; 89,65</t>
+          <t>85,5; 89,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,54; 73,58</t>
+          <t>68,74; 73,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,07; 79,49</t>
+          <t>76,04; 79,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,5; 77,1</t>
+          <t>73,65; 77,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>83,61; 87,05</t>
+          <t>83,51; 86,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,24; 71,58</t>
+          <t>67,2; 71,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,36; 69,99</t>
+          <t>65,43; 70,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,02; 69,3</t>
+          <t>65,04; 69,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,53; 84,86</t>
+          <t>81,6; 84,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 63,33</t>
+          <t>36,4; 63,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,41; 71,4</t>
+          <t>66,59; 71,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,54; 77,66</t>
+          <t>73,5; 77,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,25; 87,35</t>
+          <t>84,15; 87,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,75; 64,94</t>
+          <t>53,27; 64,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,67; 69,83</t>
+          <t>66,65; 70,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,53; 72,66</t>
+          <t>69,65; 72,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,26; 85,55</t>
+          <t>83,38; 85,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 62,98</t>
+          <t>46,42; 62,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,62; 72,75</t>
+          <t>64,27; 72,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,92; 72,32</t>
+          <t>63,37; 72,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,66; 80,52</t>
+          <t>72,53; 80,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,45; 64,92</t>
+          <t>57,13; 65,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,0; 68,92</t>
+          <t>60,13; 69,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,66; 72,6</t>
+          <t>62,78; 72,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,92; 79,5</t>
+          <t>72,13; 79,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,55; 60,6</t>
+          <t>53,44; 59,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,69; 69,69</t>
+          <t>63,65; 69,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,21; 70,84</t>
+          <t>64,07; 70,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,73; 78,77</t>
+          <t>73,74; 78,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,15; 61,7</t>
+          <t>56,38; 61,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,69; 71,99</t>
+          <t>68,81; 71,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,18; 70,36</t>
+          <t>67,18; 70,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,57; 83,24</t>
+          <t>80,58; 83,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,05; 63,68</t>
+          <t>42,93; 63,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,83; 73,86</t>
+          <t>70,65; 73,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,72; 76,72</t>
+          <t>73,73; 76,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,53; 85,94</t>
+          <t>83,54; 85,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,23; 64,73</t>
+          <t>57,57; 64,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,27; 72,46</t>
+          <t>70,14; 72,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,08; 73,21</t>
+          <t>70,93; 73,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>82,36; 84,15</t>
+          <t>82,42; 84,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,25; 63,55</t>
+          <t>51,37; 63,3</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo social funcional bajo, por encima del percentil 15</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>782119</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>695041</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>613022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>337137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1041359</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1022373</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>865604</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>520029</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1823477</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1717413</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1478626</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>857166</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>754743; 808685</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>666077; 720661</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>592137; 633259</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>317139; 358399</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1010710; 1071449</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>993434; 1053395</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>843124; 886539</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>501582; 538400</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1784508; 1862817</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1676724; 1757728</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1448641; 1507697</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>828092; 885582</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1611</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3273</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1146260</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1309027</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1713554</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1267954</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1091164</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1320157</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1689303</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1225904</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2237424</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2629184</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3402857</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2493858</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1106968; 1185109</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1266977; 1351536</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1679815; 1747256</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>825443; 1433521</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1055130; 1127025</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1282770; 1355666</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1658025; 1720697</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1066341; 1292967</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2183673; 2296095</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2572359; 2686096</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3359276; 3448303</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1981796; 2679279</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>374982</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>321960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>417243</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>386267</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>308144</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>305779</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>408604</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>372195</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>683126</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>627739</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>825848</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>758463</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>351595; 397041</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>301758; 344967</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>394587; 436677</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>362056; 415032</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>286456; 328722</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>283888; 326283</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>389387; 427495</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>350199; 392358</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>651417; 713696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>594851; 655264</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>799271; 855456</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>726703; 794880</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2166</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2212</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2777</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4615</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5389</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5753</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2303361</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2326028</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2743820</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1991359</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2440666</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2648309</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2963512</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2118128</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4744028</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4974336</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5707332</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4109486</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2250542; 2354164</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2270100; 2386346</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2700372; 2785047</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1461251; 2164884</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2385333; 2485211</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2594601; 2704541</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2920744; 3006130</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1949602; 2185378</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4661791; 4811229</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4893206; 5049398</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5643807; 5771006</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3488230; 4298245</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>